--- a/Docs/Logboeken Pieter Jan Kolijn D231100/Pieter_Jan_week_1.xlsx
+++ b/Docs/Logboeken Pieter Jan Kolijn D231100/Pieter_Jan_week_1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Leerjaar 2017_2018\VHT_PHP\Project Barroc\Barroc-it-groep5\Logboeken Pieter Jan Kolijn D231100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Leerjaar 2017_2018\VHT_PHP\Project Barroc\Barroc-it-groep5\Docs\Logboeken Pieter Jan Kolijn D231100\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75417744-718C-4069-A018-B5B0236DAF82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naam" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Maandag</t>
   </si>
@@ -90,11 +91,14 @@
   <si>
     <t>Vragen intervieuw</t>
   </si>
+  <si>
+    <t>intervieuws</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -555,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +953,7 @@
       <c r="A21" s="12"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7">
-        <f t="shared" ref="C20:C28" si="3">D20</f>
+        <f t="shared" ref="C21:C28" si="3">D20</f>
         <v>0.51041666666666663</v>
       </c>
       <c r="D21" s="7">
@@ -1454,16 +1458,18 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C49" s="7">
         <v>0.375</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E49" s="7">
         <f>D49-C49</f>
-        <v>-0.375</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -1475,14 +1481,14 @@
       <c r="B50" s="5"/>
       <c r="C50" s="7">
         <f>D49</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
       </c>
       <c r="E50" s="7">
         <f t="shared" ref="E50:E59" si="6">D50-C50</f>
-        <v>0</v>
+        <v>-0.51041666666666663</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="9"/>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -1678,7 +1684,7 @@
       </c>
       <c r="H60" s="3">
         <f>D60-C49</f>
-        <v>-0.375</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="I60" s="5"/>
     </row>
